--- a/Assignment3/data.xlsx
+++ b/Assignment3/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjingbo/Desktop/cs4641/Assignment3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D8C59E-AA8E-2D42-8C00-351F8E7FCD53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B69BE-C4DC-9E40-9FB3-95C854719B15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{9298B9CA-CC8F-2F4B-9B30-03A449C2514C}"/>
   </bookViews>
@@ -3311,177 +3311,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>3 fold cross validation </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nn!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nn!$C$2:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.66598599999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66598599999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66598599999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66598599999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65782099999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66241399999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66241399999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.69558600000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.69558600000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.69558600000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.72875699999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.74483299999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.74483299999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.74100500000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74100500000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.75657099999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.76499099999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.76397000000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.76141899999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-92E5-7B49-802A-1C50E6D5667A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>test performance</c:v>
           </c:tx>
@@ -4146,117 +3977,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>3 fold cross validation </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nn!$F$2:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nn!$H$2:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.72875699999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.74075000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74355700000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74202599999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74406700000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74636400000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76177099999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.76116399999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.73666799999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-92E5-7B49-802A-1C50E6D5667A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>test performance</c:v>
           </c:tx>
@@ -4711,7 +4433,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t>Neural Network Performance vs K-means Clusters</a:t>
+              <a:t>Neural Network Performance vs GMM-EM Clusters</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4861,90 +4583,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>3 fold cross validation </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>nn!$K$2:$K$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nn!$M$2:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-92E5-7B49-802A-1C50E6D5667A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>test performance</c:v>
           </c:tx>
@@ -5092,7 +4732,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                  <a:t>K-means Clusters</a:t>
+                  <a:t>GMM-EM Clusters</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -21151,8 +20791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FE7913-6F1D-354D-B462-CABE30F44A72}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
